--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>577534.868124043</v>
+        <v>598308.7820235866</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072687</v>
+        <v>10911602.29072688</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8341311.708736051</v>
+        <v>8341311.708736052</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,13 +674,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>114.9581870864144</v>
       </c>
       <c r="I2" t="n">
-        <v>9.234466016111838</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>16.16726461546774</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>107.7147626390813</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776589</v>
       </c>
     </row>
     <row r="6">
@@ -972,31 +972,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>45.28887413297245</v>
+        <v>172.5764158182478</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,28 +1133,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>263.2420339516672</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8635835046283</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>83.7088806873063</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052851991</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>144.05760276447</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>105.3830043755903</v>
       </c>
       <c r="T9" t="n">
-        <v>163.3532090203626</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>51.96190712986807</v>
       </c>
       <c r="J10" t="n">
-        <v>5.632598604764791</v>
+        <v>90.42516245839138</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871606</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>158.9897392454088</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>294.1735225537953</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1458,7 +1458,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G12" t="n">
         <v>136.5310119231965</v>
@@ -1497,7 +1497,7 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
         <v>196.8897623984489</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755638</v>
+        <v>63.57678144609342</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1549,7 +1549,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>104.5113366705979</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>375.4380596030671</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T15" t="n">
         <v>196.8897623984489</v>
@@ -1765,28 +1765,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755638</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>37.83808333974875</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>401.3550844723776</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>159.5623709710783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1983,7 +1983,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>33.84234274505293</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.305787840852963</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>260.2548310208714</v>
       </c>
     </row>
     <row r="21">
@@ -2281,25 +2281,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>54.47555601903409</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>338.3682296398989</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>116.2349668968044</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.72683757586824</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,16 +2555,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2600,28 +2600,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>6.829451203085018</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.9116248270336</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>75.20891053381781</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2755,16 +2755,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>133.213740718609</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.4212989822248</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2798,10 +2798,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>284.5615160058697</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>120.8576927221052</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>339.0399185806818</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3187,28 +3187,28 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>22.36518461070874</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3275,10 +3275,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>280.1033070984082</v>
+        <v>376.184863643924</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>118.9283458032787</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>129.0036366911897</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>357.0937460202708</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3515,10 +3515,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,28 +3548,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>20.88637380904752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250842</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3661,22 +3661,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>4.553842565069047</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>59.66385641544528</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>134.2574504375185</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>327.9428964074131</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,16 +3785,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250842</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>50.43151777216859</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>155.2114886365812</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>2.80169084827935</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>85.89876840022426</v>
       </c>
     </row>
     <row r="45">
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>174.8813118982896</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>527.5764290961142</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C2" t="n">
-        <v>527.5764290961142</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D2" t="n">
-        <v>284.1276524520142</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E2" t="n">
-        <v>284.1276524520142</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F2" t="n">
-        <v>284.1276524520142</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G2" t="n">
-        <v>284.1276524520142</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="H2" t="n">
-        <v>40.6788758079141</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>527.5764290961142</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>527.5764290961142</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>527.5764290961142</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W2" t="n">
-        <v>527.5764290961142</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X2" t="n">
-        <v>527.5764290961142</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.5764290961142</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.61171342886701</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H3" t="n">
         <v>19.28114311021272</v>
@@ -4410,49 +4410,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W3" t="n">
-        <v>619.4388494194218</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X3" t="n">
-        <v>411.587349213889</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.827050448935</v>
+        <v>526.7184526376595</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4525,13 +4525,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
         <v>19.28114311021272</v>
@@ -4568,49 +4568,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>122.2961490211346</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>302.3720006057932</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686974</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759367</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185848</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424087</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424087</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424087</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424087</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424087</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>749.6274730425125</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>749.6274730425125</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>749.6274730425125</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984126</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.8876260635219</v>
+        <v>352.8382100532922</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>542.8095319084026</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>781.413677897285</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788931</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788931</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>521.0535470733603</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>521.0535470733603</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
         <v>19.28114311021272</v>
@@ -4747,28 +4747,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1052.968135806669</v>
+        <v>907.4554057415475</v>
       </c>
       <c r="C8" t="n">
-        <v>1052.968135806669</v>
+        <v>641.554361345924</v>
       </c>
       <c r="D8" t="n">
-        <v>1052.968135806669</v>
+        <v>641.554361345924</v>
       </c>
       <c r="E8" t="n">
-        <v>787.0670914110452</v>
+        <v>641.554361345924</v>
       </c>
       <c r="F8" t="n">
-        <v>521.1660470154218</v>
+        <v>641.554361345924</v>
       </c>
       <c r="G8" t="n">
-        <v>255.2650026197983</v>
+        <v>375.6533169503006</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613337</v>
+        <v>109.7522725546771</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613337</v>
+        <v>25.19784761800408</v>
       </c>
       <c r="J8" t="n">
         <v>21.05936271613337</v>
@@ -4826,28 +4826,28 @@
         <v>1052.968135806669</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806669</v>
+        <v>907.4554057415475</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806669</v>
+        <v>907.4554057415475</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806669</v>
+        <v>907.4554057415475</v>
       </c>
       <c r="U8" t="n">
-        <v>1052.968135806669</v>
+        <v>907.4554057415475</v>
       </c>
       <c r="V8" t="n">
-        <v>1052.968135806669</v>
+        <v>907.4554057415475</v>
       </c>
       <c r="W8" t="n">
-        <v>1052.968135806669</v>
+        <v>907.4554057415475</v>
       </c>
       <c r="X8" t="n">
-        <v>1052.968135806669</v>
+        <v>907.4554057415475</v>
       </c>
       <c r="Y8" t="n">
-        <v>1052.968135806669</v>
+        <v>907.4554057415475</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>465.5122006236894</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="C9" t="n">
-        <v>465.5122006236894</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="D9" t="n">
-        <v>465.5122006236894</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="E9" t="n">
-        <v>306.2747456182339</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="F9" t="n">
-        <v>159.7401876451189</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="G9" t="n">
         <v>21.05936271613337</v>
@@ -4881,25 +4881,25 @@
         <v>21.05936271613337</v>
       </c>
       <c r="J9" t="n">
-        <v>24.95018035683224</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K9" t="n">
-        <v>158.2210505399126</v>
+        <v>154.3302328992137</v>
       </c>
       <c r="L9" t="n">
-        <v>398.8245784347753</v>
+        <v>394.9337607940764</v>
       </c>
       <c r="M9" t="n">
-        <v>398.8245784347753</v>
+        <v>600.5536970360777</v>
       </c>
       <c r="N9" t="n">
-        <v>524.9036321565297</v>
+        <v>600.5536970360777</v>
       </c>
       <c r="O9" t="n">
-        <v>785.316696249022</v>
+        <v>860.9667611285699</v>
       </c>
       <c r="P9" t="n">
-        <v>977.3180709271207</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="Q9" t="n">
         <v>1052.968135806669</v>
@@ -4908,25 +4908,25 @@
         <v>1052.968135806669</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806669</v>
+        <v>946.5206566394057</v>
       </c>
       <c r="T9" t="n">
-        <v>887.964894371959</v>
+        <v>946.5206566394057</v>
       </c>
       <c r="U9" t="n">
-        <v>887.964894371959</v>
+        <v>718.3003278816105</v>
       </c>
       <c r="V9" t="n">
-        <v>887.964894371959</v>
+        <v>483.1482196498678</v>
       </c>
       <c r="W9" t="n">
-        <v>633.7275376437574</v>
+        <v>228.9108629216662</v>
       </c>
       <c r="X9" t="n">
-        <v>633.7275376437574</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="Y9" t="n">
-        <v>633.7275376437574</v>
+        <v>21.05936271613337</v>
       </c>
     </row>
     <row r="10">
@@ -4957,10 +4957,10 @@
         <v>182.5089274706541</v>
       </c>
       <c r="I10" t="n">
-        <v>26.74885625629983</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613337</v>
+        <v>38.68360465423041</v>
       </c>
       <c r="K10" t="n">
         <v>21.05936271613337</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>214.5386780278481</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C11" t="n">
-        <v>53.94298182036444</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036444</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036444</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036444</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
@@ -5045,7 +5045,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5066,25 +5066,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2048.575150942546</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>1717.512263598976</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W11" t="n">
-        <v>1364.743608328861</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X11" t="n">
-        <v>991.2778500677816</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y11" t="n">
-        <v>601.1385180919699</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
         <v>359.3385232961344</v>
@@ -5115,28 +5115,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5145,16 +5145,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5182,22 +5182,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816298</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837194</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220518</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>159.5099885583422</v>
+        <v>433.1733450557858</v>
       </c>
       <c r="C14" t="n">
-        <v>53.94298182036445</v>
+        <v>433.1733450557858</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036445</v>
+        <v>433.1733450557858</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>433.1733450557858</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>433.1733450557858</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W14" t="n">
-        <v>1309.714918859356</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X14" t="n">
-        <v>936.2491605982757</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y14" t="n">
-        <v>546.109828622464</v>
+        <v>819.7731851199076</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
         <v>1748.695370517453</v>
@@ -5379,7 +5379,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
         <v>2488.762748073964</v>
@@ -5413,25 +5413,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816298</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837194</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220518</v>
+        <v>92.16326802213086</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2149.375138862102</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C17" t="n">
-        <v>1780.41262192169</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D17" t="n">
-        <v>1422.14692331494</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E17" t="n">
-        <v>1036.358670716696</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F17" t="n">
-        <v>625.3727659270879</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5558,7 +5558,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="Y17" t="n">
-        <v>2535.974978926224</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="18">
@@ -5592,43 +5592,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>257.0633493392339</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>88.12716641132701</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>88.12716641132701</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>88.12716641132701</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>88.12716641132701</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5677,46 +5677,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W19" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1577.945354755378</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C20" t="n">
-        <v>1208.982837814967</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D20" t="n">
-        <v>850.7171392082162</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E20" t="n">
-        <v>464.928886609972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F20" t="n">
         <v>53.94298182036445</v>
@@ -5768,34 +5768,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
-        <v>2690.779608350694</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2690.779608350694</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U20" t="n">
-        <v>2690.779608350694</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V20" t="n">
-        <v>2690.779608350694</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W20" t="n">
-        <v>2338.01095308058</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X20" t="n">
-        <v>1964.5451948195</v>
+        <v>1816.442957727742</v>
       </c>
       <c r="Y20" t="n">
-        <v>1964.5451948195</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>2305.297090124192</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>2077.988902792793</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>2022.963088632153</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V22" t="n">
-        <v>2022.963088632153</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1268.68094731003</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C23" t="n">
-        <v>1268.68094731003</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.68094731003</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F23" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2579.740033546703</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2579.740033546703</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U23" t="n">
-        <v>2325.978248184794</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V23" t="n">
-        <v>1994.915360841223</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W23" t="n">
-        <v>1642.146705571109</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X23" t="n">
-        <v>1268.68094731003</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y23" t="n">
-        <v>1268.68094731003</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="24">
@@ -6042,67 +6042,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6111,7 +6111,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2636.818952052699</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C25" t="n">
-        <v>2467.882769124792</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D25" t="n">
-        <v>2317.766129712456</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E25" t="n">
-        <v>2169.853036130063</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018222</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W25" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X25" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y25" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1208.982837814967</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C26" t="n">
-        <v>1208.982837814967</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D26" t="n">
-        <v>850.7171392082162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E26" t="n">
-        <v>464.928886609972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F26" t="n">
         <v>53.94298182036445</v>
@@ -6227,16 +6227,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6248,28 +6248,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2690.250655459551</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2690.250655459551</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2690.250655459551</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2690.250655459551</v>
+        <v>2225.068338306413</v>
       </c>
       <c r="V26" t="n">
-        <v>2359.18776811598</v>
+        <v>1894.005450962842</v>
       </c>
       <c r="W26" t="n">
-        <v>2359.18776811598</v>
+        <v>1541.236795692728</v>
       </c>
       <c r="X26" t="n">
-        <v>1985.7220098549</v>
+        <v>1167.771037431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>1595.582677879088</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
@@ -6306,40 +6306,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>280.0282177315061</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D28" t="n">
         <v>53.94298182036445</v>
@@ -6388,46 +6388,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>564.1527310008552</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U28" t="n">
-        <v>564.1527310008552</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V28" t="n">
-        <v>564.1527310008552</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W28" t="n">
-        <v>274.7355609638946</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X28" t="n">
-        <v>274.7355609638946</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>280.0282177315061</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1577.945354755378</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C29" t="n">
-        <v>1208.982837814967</v>
+        <v>412.208680427115</v>
       </c>
       <c r="D29" t="n">
-        <v>850.7171392082162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E29" t="n">
-        <v>464.928886609972</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6479,34 +6479,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W29" t="n">
-        <v>2642.120401548716</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X29" t="n">
-        <v>2354.684526795312</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y29" t="n">
-        <v>1964.5451948195</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
         <v>1194.968834417902</v>
@@ -6561,28 +6561,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C31" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D31" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E31" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1920.409918978289</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C32" t="n">
-        <v>1551.447402037878</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D32" t="n">
-        <v>1193.181703431127</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E32" t="n">
-        <v>807.393450832883</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F32" t="n">
-        <v>396.4075460432754</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G32" t="n">
         <v>53.94298182036446</v>
@@ -6704,13 +6704,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6722,28 +6722,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018223</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018223</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018223</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X32" t="n">
-        <v>2697.149091018223</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2307.009759042411</v>
+        <v>1331.061315312043</v>
       </c>
     </row>
     <row r="33">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>698.7120650600563</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C34" t="n">
-        <v>529.7758821321494</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D34" t="n">
-        <v>529.7758821321494</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E34" t="n">
-        <v>381.8627885497563</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>381.8627885497563</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>212.8629882880887</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>212.8629882880887</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>76.53407738673693</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
         <v>53.94298182036446</v>
@@ -6862,46 +6862,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>698.7120650600563</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V34" t="n">
-        <v>698.7120650600563</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W34" t="n">
-        <v>698.7120650600563</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X34" t="n">
-        <v>698.7120650600563</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y34" t="n">
-        <v>698.7120650600563</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.915471247702</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C35" t="n">
-        <v>1491.915471247702</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D35" t="n">
-        <v>1133.649772640952</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E35" t="n">
-        <v>747.8615200427075</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F35" t="n">
-        <v>336.8756152531</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036445</v>
@@ -6935,19 +6935,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6959,28 +6959,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
@@ -7017,46 +7017,46 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>369.8327295799424</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="C37" t="n">
-        <v>369.8327295799424</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="D37" t="n">
-        <v>369.8327295799424</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="E37" t="n">
-        <v>369.8327295799424</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="F37" t="n">
-        <v>222.942782082032</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>2300.841103425157</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>2143.092730857687</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>597.8222804779598</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="U37" t="n">
-        <v>597.8222804779598</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="V37" t="n">
-        <v>597.8222804779598</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="W37" t="n">
-        <v>597.8222804779598</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="X37" t="n">
-        <v>369.8327295799424</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="Y37" t="n">
-        <v>369.8327295799424</v>
+        <v>2469.840903686824</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1584.923258067584</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C38" t="n">
-        <v>1215.960741127172</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D38" t="n">
-        <v>857.6950425204218</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E38" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
@@ -7190,34 +7190,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V38" t="n">
-        <v>2366.086203674652</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W38" t="n">
-        <v>2366.086203674652</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X38" t="n">
-        <v>1992.620445413572</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y38" t="n">
-        <v>1971.523098131706</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="39">
@@ -7227,67 +7227,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7296,7 +7296,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>728.1289842064342</v>
+        <v>58.54282279518168</v>
       </c>
       <c r="C40" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D40" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E40" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F40" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>286.532373693199</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>286.532373693199</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>286.532373693199</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>286.532373693199</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>58.54282279518168</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064342</v>
+        <v>58.54282279518168</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>882.8926947117851</v>
+        <v>1112.426648284106</v>
       </c>
       <c r="C41" t="n">
-        <v>882.8926947117851</v>
+        <v>743.4641313436939</v>
       </c>
       <c r="D41" t="n">
-        <v>882.8926947117851</v>
+        <v>385.1984327369434</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117851</v>
+        <v>385.1984327369434</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>385.1984327369434</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2465.942913862885</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U41" t="n">
-        <v>2465.942913862885</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V41" t="n">
-        <v>2134.880026519314</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W41" t="n">
-        <v>1782.1113712492</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X41" t="n">
-        <v>1408.645612988121</v>
+        <v>1112.426648284106</v>
       </c>
       <c r="Y41" t="n">
-        <v>1018.506281012309</v>
+        <v>1112.426648284106</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>104.883908862959</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>104.883908862959</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>104.883908862959</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>104.883908862959</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>104.883908862959</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S43" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T43" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U43" t="n">
-        <v>286.5323736931987</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V43" t="n">
-        <v>286.5323736931987</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5323736931987</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X43" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y43" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1580.775345511216</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="C44" t="n">
-        <v>1211.812828570804</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D44" t="n">
-        <v>853.547129964054</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E44" t="n">
-        <v>467.7588773658097</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F44" t="n">
-        <v>56.77297257620216</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>56.77297257620216</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224075</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7664,34 +7664,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W44" t="n">
-        <v>2344.380435748108</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X44" t="n">
-        <v>1970.914677487028</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="Y44" t="n">
-        <v>1580.775345511216</v>
+        <v>1244.294882584544</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M45" t="n">
         <v>1237.953133915166</v>
@@ -7743,34 +7743,34 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>369.8327295799423</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="C46" t="n">
-        <v>369.8327295799423</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D46" t="n">
-        <v>369.8327295799423</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E46" t="n">
-        <v>369.8327295799423</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F46" t="n">
-        <v>222.942782082032</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T46" t="n">
-        <v>551.4811944101821</v>
+        <v>2594.34031553383</v>
       </c>
       <c r="U46" t="n">
-        <v>551.4811944101821</v>
+        <v>2594.34031553383</v>
       </c>
       <c r="V46" t="n">
-        <v>551.4811944101821</v>
+        <v>2594.34031553383</v>
       </c>
       <c r="W46" t="n">
-        <v>551.4811944101821</v>
+        <v>2594.34031553383</v>
       </c>
       <c r="X46" t="n">
-        <v>551.4811944101821</v>
+        <v>2594.34031553383</v>
       </c>
       <c r="Y46" t="n">
-        <v>551.4811944101821</v>
+        <v>2373.5477363903</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>301.248502863135</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,19 +8295,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631347</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>129.5917403577178</v>
+        <v>337.2886456526686</v>
       </c>
       <c r="N9" t="n">
-        <v>245.8200408460688</v>
+        <v>118.4674613291451</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>133.6630807868108</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,10 +9012,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K30" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093294</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119839</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11075,10 +11075,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714823</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992663</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22550,7 +22550,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22562,13 +22562,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>224.5166150293527</v>
       </c>
       <c r="I2" t="n">
-        <v>201.2414235542941</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,16 +22589,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22610,7 +22610,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22623,25 +22623,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>156.541234372848</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>49.93031781631962</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22671,28 +22671,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22781,19 +22781,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>180.4391552345834</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>124.2586028933486</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22841,7 +22841,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="6">
@@ -22860,31 +22860,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>127.4196248553433</v>
+        <v>0.1320831700679719</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22920,13 +22920,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22951,7 +22951,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -22987,7 +22987,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23021,28 +23021,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>102.0308578193404</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>118.6883361205946</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>143.6340117900443</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>151.9681874521642</v>
       </c>
       <c r="H8" t="n">
-        <v>106.6637379862501</v>
+        <v>75.2852875392112</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>123.2002815020646</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052851991</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.05760276447</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>206.9118586999128</v>
@@ -23097,7 +23097,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23106,13 +23106,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
         <v>111.757373777286</v>
@@ -23148,22 +23148,22 @@
         <v>97.0844620270375</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>65.38071695769511</v>
       </c>
       <c r="T9" t="n">
-        <v>36.6119979887122</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23197,13 +23197,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>102.2405633723427</v>
       </c>
       <c r="J10" t="n">
-        <v>84.79256385362659</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871606</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>206.2831525255987</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>112.7025231879161</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23385,7 +23385,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890128</v>
+        <v>82.85718120047575</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23437,7 +23437,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>260.7615551004096</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23507,7 +23507,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>38.34611041772786</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,13 +23540,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,28 +23653,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890128</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>118.3328055020464</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>12.42908554841739</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23798,7 +23798,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>226.6755676849753</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>133.467459513998</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23911,7 +23911,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23944,13 +23944,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -24014,10 +24014,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>168.1099249681186</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
@@ -24026,16 +24026,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>125.9831076351822</v>
       </c>
     </row>
     <row r="21">
@@ -24148,7 +24148,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,25 +24169,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>231.8063182229436</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,19 +24203,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>44.36561202358172</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24251,13 +24251,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>58.1807459121671</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24269,7 +24269,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.1051426060691</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24385,7 +24385,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,16 +24443,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>47.6489513717267</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0.312542681255735</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24601,10 +24601,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>92.03791056481002</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24622,7 +24622,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,16 +24643,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>13.4514512615489</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.3125426812557635</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,10 +24686,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>85.16958467259929</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24859,7 +24859,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24898,13 +24898,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>243.205144897451</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>261.8761489413754</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>74.74425144011315</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24971,19 +24971,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25075,28 +25075,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>22.83477457782826</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,10 +25117,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25129,13 +25129,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,7 +25154,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25163,10 +25163,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>133.6808629223868</v>
+        <v>37.59930637687103</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25321,19 +25321,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>16.03727598905948</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>96.03146876689462</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,10 +25388,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>8.179145750736723</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25403,13 +25403,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>365.351564847006</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25549,28 +25549,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>162.6929785335588</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>96.50703242634987</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,16 +25591,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>248.4763912259621</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>85.84127361338187</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>116.8782844868823</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25807,7 +25807,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,28 +25828,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>131.0703856053965</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,28 +25862,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>321.1210819160778</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25919,10 +25919,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>300.3391702558293</v>
       </c>
     </row>
     <row r="45">
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,10 +26032,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26044,7 +26044,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,16 +26065,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>50.15379355979468</v>
+        <v>123.254417728535</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473796.0964945849</v>
+        <v>473796.0964945848</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>492874.1898834559</v>
+        <v>492874.1898834558</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.054682965</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801686.054682965</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>801686.0546829646</v>
+        <v>801686.0546829648</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801686.054682965</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>801686.0546829648</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>801686.054682965</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.054682965</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>801686.0546829648</v>
+        <v>801686.054682965</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>801686.0546829648</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
   </sheetData>
@@ -26320,7 +26320,7 @@
         <v>147339.1279972482</v>
       </c>
       <c r="E2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="F2" t="n">
         <v>245779.7185133939</v>
@@ -26344,13 +26344,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="M2" t="n">
+        <v>245779.7185133939</v>
+      </c>
+      <c r="N2" t="n">
+        <v>245779.7185133939</v>
+      </c>
+      <c r="O2" t="n">
         <v>245779.718513394</v>
-      </c>
-      <c r="N2" t="n">
-        <v>245779.7185133938</v>
-      </c>
-      <c r="O2" t="n">
-        <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
         <v>245779.7185133939</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.58757266359</v>
+        <v>26613.58757266362</v>
       </c>
       <c r="E3" t="n">
         <v>407720.4376835738</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="C4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="D4" t="n">
-        <v>36111.51865793983</v>
+        <v>33719.40849968307</v>
       </c>
       <c r="E4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="G4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="H4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="I4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="J4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="K4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026683</v>
       </c>
       <c r="L4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="M4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="N4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="O4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="P4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>48281.26876376166</v>
       </c>
       <c r="D5" t="n">
         <v>50134.40740683338</v>
@@ -26488,13 +26488,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340947</v>
@@ -26503,13 +26503,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23852.34097909832</v>
+        <v>-21463.97542793461</v>
       </c>
       <c r="C6" t="n">
-        <v>56917.09055244938</v>
+        <v>59305.45610361313</v>
       </c>
       <c r="D6" t="n">
-        <v>34479.61435981141</v>
+        <v>36871.72451806813</v>
       </c>
       <c r="E6" t="n">
-        <v>-249645.2650372985</v>
+        <v>-247116.9438738563</v>
       </c>
       <c r="F6" t="n">
-        <v>158075.1726462753</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="G6" t="n">
-        <v>158075.1726462753</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="H6" t="n">
-        <v>158075.1726462752</v>
+        <v>160603.4938097175</v>
       </c>
       <c r="I6" t="n">
-        <v>158075.1726462753</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="J6" t="n">
-        <v>95015.23004716913</v>
+        <v>97543.55121061145</v>
       </c>
       <c r="K6" t="n">
-        <v>158075.1726462753</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="L6" t="n">
-        <v>152449.5304177495</v>
+        <v>154977.8515811918</v>
       </c>
       <c r="M6" t="n">
-        <v>55641.05495564044</v>
+        <v>58169.37611908265</v>
       </c>
       <c r="N6" t="n">
-        <v>158075.1726462753</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="O6" t="n">
-        <v>158075.1726462753</v>
+        <v>160603.4938097177</v>
       </c>
       <c r="P6" t="n">
-        <v>158075.1726462753</v>
+        <v>160603.4938097176</v>
       </c>
     </row>
   </sheetData>
@@ -26750,34 +26750,34 @@
         <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
     </row>
     <row r="4">
@@ -26790,13 +26790,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="D4" t="n">
         <v>263.2420339516672</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26808,13 +26808,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545557</v>
@@ -26823,13 +26823,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400811</v>
+        <v>22.22774507400823</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028883</v>
+        <v>411.0452388028884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>22.22774507400823</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028882</v>
+        <v>411.0452388028883</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400811</v>
+        <v>22.22774507400823</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028883</v>
+        <v>411.0452388028884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32230,19 +32230,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32257,13 +32257,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32330,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32382,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32406,16 +32406,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32467,19 +32467,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32494,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32567,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32619,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32643,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32704,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32731,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32804,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32856,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32880,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32941,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32968,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33041,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33093,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33117,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33178,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33205,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33278,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33330,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33354,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33415,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33442,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33515,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33567,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33591,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33652,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33679,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33752,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33828,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,43 +33889,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P38" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M39" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N39" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,25 +34065,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,43 +34126,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P41" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N42" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,25 +34302,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,43 +34363,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P44" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,25 +34539,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9067907798017</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798014</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988751</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>134.61704058897</v>
@@ -35258,10 +35258,10 @@
         <v>243.0338665604674</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>207.6969052949508</v>
       </c>
       <c r="N9" t="n">
-        <v>127.3525795169237</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>263.0434990833256</v>
@@ -35270,7 +35270,7 @@
         <v>193.9407825031301</v>
       </c>
       <c r="Q9" t="n">
-        <v>76.41420694903826</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35507,7 +35507,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35732,10 +35732,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245897</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35972,16 +35972,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36209,16 +36209,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,16 +36446,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36683,16 +36683,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,16 +37157,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37324,7 +37324,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,16 +37394,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P38" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37713,10 +37713,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O40" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624592</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37950,10 +37950,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P44" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38187,10 +38187,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>570320.5464695438</v>
+        <v>631041.8831559023</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335414.3901624713</v>
+        <v>337002.2430554234</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10905804.67830212</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8344276.874268916</v>
+        <v>8323672.938960839</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,10 +803,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>97.48188567889163</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>208.6835142066282</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0311969618593</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>28.25887585634895</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>198.4016881281565</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>110.5627721675628</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>137.0815656650981</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>263.2420339516669</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852072</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>20.85462475186318</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>125.638434068502</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>165.0933990595044</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1423,10 +1423,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>227.1165746617145</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>89.07602811714224</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>153.8100533453327</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>52.13932820450158</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>188.2967440369996</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>25.30122190860853</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
     </row>
     <row r="17">
@@ -1846,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>98.9246573280012</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>40.56696428347033</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I18" t="n">
         <v>61.42221998250818</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>247.9966967793302</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>160.2491677474086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>311.072271888288</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>46.15701231134206</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2174,7 +2174,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H21" t="n">
         <v>104.3883541553076</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>208.279329433658</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>76.00115178856009</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,10 +2335,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>219.3573038660101</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>101.780687729549</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>236.7139500600953</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>39.43196520350818</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>83.06748266394143</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>35.85115782931125</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.706926911161502</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>273.6361929743166</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>309.2336821002899</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T30" t="n">
         <v>196.8897623984489</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>44.85034555736565</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>136.0951948922481</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>339.0399185806816</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>49.4525604164599</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.80276983270106</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>181.8718604099408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0.4909289099627722</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>127.9907220675518</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.70347605254877</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>114.5513262681048</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>89.30725745073089</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>28.5103304121437</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>327.9428964074126</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>404.7513511067306</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>26.32882004050051</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>62.95369569505497</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>173.3086298268758</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>67.87096028541178</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>217.2367324792705</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U2" t="n">
-        <v>710.516763498309</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V2" t="n">
-        <v>467.067986854209</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W2" t="n">
-        <v>467.067986854209</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X2" t="n">
-        <v>223.6192102101089</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="Y2" t="n">
-        <v>223.6192102101089</v>
+        <v>100.4273118130612</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
+        <v>144.6387031680501</v>
+      </c>
+      <c r="M3" t="n">
         <v>234.810827406191</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N3" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X3" t="n">
-        <v>158.7661011803829</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4521,13 +4521,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
         <v>19.28114311021272</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.5980815799443</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>266.5980815799443</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>266.5980815799443</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>266.5980815799443</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>124.4399474973462</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>306.8231980260855</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>526.3662512024591</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>734.8297429586089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>886.4882690646268</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>978.2509294445696</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>767.4595009530259</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>542.1754636178144</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U5" t="n">
-        <v>542.1754636178144</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V5" t="n">
-        <v>542.1754636178144</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W5" t="n">
-        <v>513.6311445709973</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X5" t="n">
-        <v>513.6311445709973</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y5" t="n">
-        <v>266.5980815799443</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194.0180478700184</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C6" t="n">
-        <v>19.56501858889139</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D6" t="n">
-        <v>19.56501858889139</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>251.2267644261524</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>493.3438694636834</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>665.7406350957049</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>907.8577401332358</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>907.8577401332358</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>978.2509294445696</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>978.2509294445696</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>777.8451838605731</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W6" t="n">
-        <v>777.8451838605731</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X6" t="n">
-        <v>569.9936836550403</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y6" t="n">
-        <v>362.2333848900864</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>47.85425064936706</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>88.07040250863014</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>132.7649205860522</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>291.0988920136273</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="C8" t="n">
-        <v>291.0988920136273</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="D8" t="n">
-        <v>291.0988920136273</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="E8" t="n">
-        <v>291.0988920136273</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="F8" t="n">
-        <v>291.0988920136273</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="G8" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573684</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142364</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098027</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369335</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885148</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806668</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>843.9662583320081</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>843.9662583320081</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U8" t="n">
-        <v>822.9009808048736</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V8" t="n">
-        <v>822.9009808048736</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W8" t="n">
-        <v>822.9009808048736</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X8" t="n">
-        <v>822.9009808048736</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y8" t="n">
-        <v>556.9999364092505</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>261.6628906109959</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>522.2725042231461</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>716.9050068346276</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>977.3180709271197</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>977.3180709271197</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806668</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>926.0606266465645</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>690.9085184148217</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W9" t="n">
-        <v>436.6711616866201</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X9" t="n">
-        <v>228.8196614810873</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360305</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955241</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.08777394865</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716486</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1241.158393318536</v>
+        <v>1435.441956461044</v>
       </c>
       <c r="C11" t="n">
-        <v>1241.158393318536</v>
+        <v>1435.441956461044</v>
       </c>
       <c r="D11" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E11" t="n">
         <v>882.8926947117852</v>
@@ -5032,22 +5032,22 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5059,10 +5059,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
         <v>2642.120401548716</v>
@@ -5071,22 +5071,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U11" t="n">
-        <v>2017.897565358469</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V11" t="n">
-        <v>2017.897565358469</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W11" t="n">
-        <v>2017.897565358469</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="X11" t="n">
-        <v>2017.897565358469</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="Y11" t="n">
-        <v>1627.758233382657</v>
+        <v>1822.041796525166</v>
       </c>
     </row>
     <row r="12">
@@ -5096,31 +5096,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K12" t="n">
         <v>309.190302261463</v>
@@ -5141,31 +5141,31 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>290.8087152951862</v>
+        <v>507.3364050629042</v>
       </c>
       <c r="C13" t="n">
-        <v>200.8329293182748</v>
+        <v>507.3364050629042</v>
       </c>
       <c r="D13" t="n">
-        <v>200.8329293182748</v>
+        <v>357.2197656505684</v>
       </c>
       <c r="E13" t="n">
-        <v>200.8329293182748</v>
+        <v>209.3066720681753</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>209.3066720681753</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5208,43 +5208,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R13" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S13" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T13" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U13" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V13" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W13" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X13" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y13" t="n">
-        <v>290.8087152951862</v>
+        <v>507.3364050629042</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1995.909162857192</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C14" t="n">
-        <v>1626.94664591678</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D14" t="n">
-        <v>1268.68094731003</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
         <v>881.2824271224075</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2302.336936304455</v>
+        <v>2451.921670198211</v>
       </c>
       <c r="U14" t="n">
-        <v>2048.575150942547</v>
+        <v>2451.921670198211</v>
       </c>
       <c r="V14" t="n">
-        <v>2048.575150942547</v>
+        <v>2120.85878285464</v>
       </c>
       <c r="W14" t="n">
-        <v>2048.575150942547</v>
+        <v>1768.090127584526</v>
       </c>
       <c r="X14" t="n">
-        <v>2048.575150942547</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="Y14" t="n">
-        <v>2048.575150942547</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="15">
@@ -5360,10 +5360,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
         <v>1194.968834417902</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.49977162703973</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>79.49977162703973</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>79.49977162703973</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>79.49977162703973</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
         <v>53.94298182036445</v>
@@ -5457,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>550.5654064942401</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V16" t="n">
-        <v>550.5654064942401</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W16" t="n">
-        <v>261.1482364572794</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X16" t="n">
-        <v>261.1482364572794</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y16" t="n">
-        <v>261.1482364572794</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>982.8165910026955</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C17" t="n">
-        <v>882.8926947117852</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D17" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
         <v>882.8926947117852</v>
@@ -5521,13 +5521,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2443.387305656314</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V17" t="n">
-        <v>2112.324418312743</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W17" t="n">
-        <v>1759.555763042629</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X17" t="n">
-        <v>1759.555763042629</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y17" t="n">
-        <v>1369.416431066817</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5597,13 +5597,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5615,22 +5615,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>351.9727148150933</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C19" t="n">
-        <v>351.9727148150933</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D19" t="n">
-        <v>201.8560754027576</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5700,25 +5700,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>513.8405610245969</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W19" t="n">
-        <v>513.8405610245969</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X19" t="n">
-        <v>513.8405610245969</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y19" t="n">
-        <v>351.9727148150933</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1524.301830724558</v>
+        <v>1226.657559460833</v>
       </c>
       <c r="C20" t="n">
-        <v>1524.301830724558</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D20" t="n">
-        <v>1524.301830724558</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E20" t="n">
-        <v>1210.087414675782</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5752,10 +5752,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
         <v>881.2824271224076</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U20" t="n">
-        <v>2267.209817970484</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V20" t="n">
-        <v>2267.209817970484</v>
+        <v>2376.862489761847</v>
       </c>
       <c r="W20" t="n">
-        <v>1914.44116270037</v>
+        <v>2376.862489761847</v>
       </c>
       <c r="X20" t="n">
-        <v>1914.44116270037</v>
+        <v>2003.396731500767</v>
       </c>
       <c r="Y20" t="n">
-        <v>1524.301830724558</v>
+        <v>1613.257399524955</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5870,10 +5870,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>517.7458231623355</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C22" t="n">
-        <v>517.7458231623355</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D22" t="n">
-        <v>517.7458231623355</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E22" t="n">
-        <v>369.8327295799424</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="H22" t="n">
         <v>53.94298182036445</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>517.7458231623355</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>517.7458231623355</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W22" t="n">
-        <v>517.7458231623355</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X22" t="n">
-        <v>517.7458231623355</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y22" t="n">
-        <v>517.7458231623355</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1317.927233509</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C23" t="n">
-        <v>1241.158393318536</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D23" t="n">
-        <v>882.8926947117852</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2057.295728843236</v>
+        <v>2475.576056810131</v>
       </c>
       <c r="W23" t="n">
-        <v>1704.527073573122</v>
+        <v>2122.807401540017</v>
       </c>
       <c r="X23" t="n">
-        <v>1704.527073573122</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y23" t="n">
-        <v>1704.527073573122</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6080,31 +6080,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C25" t="n">
         <v>53.94298182036445</v>
@@ -6174,25 +6174,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>513.8405610245969</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="T25" t="n">
-        <v>513.8405610245969</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="U25" t="n">
-        <v>274.7355609638946</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="V25" t="n">
-        <v>274.7355609638946</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W25" t="n">
-        <v>274.7355609638946</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X25" t="n">
-        <v>274.7355609638946</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1595.875667274027</v>
+        <v>1624.753525949915</v>
       </c>
       <c r="C26" t="n">
-        <v>1595.875667274027</v>
+        <v>1255.791009009504</v>
       </c>
       <c r="D26" t="n">
-        <v>1595.875667274027</v>
+        <v>897.5253104027533</v>
       </c>
       <c r="E26" t="n">
-        <v>1210.087414675782</v>
+        <v>511.7370578045091</v>
       </c>
       <c r="F26" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6226,13 +6226,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2443.387305656314</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V26" t="n">
-        <v>2443.387305656314</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W26" t="n">
-        <v>2359.480757510918</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X26" t="n">
-        <v>1986.014999249838</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y26" t="n">
-        <v>1595.875667274027</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424006</v>
@@ -6314,7 +6314,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6326,22 +6326,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>259.1560728187101</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="C28" t="n">
-        <v>259.1560728187101</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="D28" t="n">
-        <v>259.1560728187101</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="E28" t="n">
-        <v>222.942782082032</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="F28" t="n">
         <v>222.942782082032</v>
@@ -6417,19 +6417,19 @@
         <v>513.8405610245969</v>
       </c>
       <c r="U28" t="n">
-        <v>513.8405610245969</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V28" t="n">
-        <v>259.1560728187101</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W28" t="n">
-        <v>259.1560728187101</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X28" t="n">
-        <v>259.1560728187101</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y28" t="n">
-        <v>259.1560728187101</v>
+        <v>224.6669506791649</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1998.219284210995</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C29" t="n">
-        <v>1998.219284210995</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="D29" t="n">
-        <v>1639.953585604245</v>
+        <v>930.7521172616398</v>
       </c>
       <c r="E29" t="n">
-        <v>1363.553390680693</v>
+        <v>930.7521172616398</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>519.7662124720323</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U29" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V29" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W29" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X29" t="n">
-        <v>2388.358616186807</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y29" t="n">
-        <v>1998.219284210995</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6630,43 +6630,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610022</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V31" t="n">
-        <v>184.2708856551153</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="W31" t="n">
-        <v>184.2708856551153</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691492</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1577.945354755378</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C32" t="n">
-        <v>1208.982837814967</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D32" t="n">
-        <v>850.7171392082162</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E32" t="n">
-        <v>464.928886609972</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
@@ -6721,31 +6721,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2286.015840690225</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>1954.952953346655</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>1954.952953346655</v>
       </c>
       <c r="X32" t="n">
-        <v>2354.684526795312</v>
+        <v>1954.952953346655</v>
       </c>
       <c r="Y32" t="n">
-        <v>1964.5451948195</v>
+        <v>1954.952953346655</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>656.6110348804735</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C34" t="n">
-        <v>656.6110348804735</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D34" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E34" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6867,43 +6867,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S34" t="n">
-        <v>656.6110348804735</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T34" t="n">
-        <v>656.6110348804735</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U34" t="n">
-        <v>656.6110348804735</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V34" t="n">
-        <v>656.6110348804735</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="W34" t="n">
-        <v>656.6110348804735</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="X34" t="n">
-        <v>656.6110348804735</v>
+        <v>272.8312459770187</v>
       </c>
       <c r="Y34" t="n">
-        <v>656.6110348804735</v>
+        <v>272.8312459770187</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1779.584617183058</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C35" t="n">
-        <v>1779.584617183058</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D35" t="n">
-        <v>1595.875667274026</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E35" t="n">
-        <v>1210.087414675782</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F35" t="n">
-        <v>799.1015098861747</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K35" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
         <v>1836.345445977174</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548715</v>
+        <v>2696.653203230381</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548715</v>
+        <v>2696.653203230381</v>
       </c>
       <c r="T35" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.018536202444</v>
       </c>
       <c r="U35" t="n">
-        <v>2169.723949158869</v>
+        <v>2224.256750840535</v>
       </c>
       <c r="V35" t="n">
-        <v>2169.723949158869</v>
+        <v>1893.193863496965</v>
       </c>
       <c r="W35" t="n">
-        <v>2169.723949158869</v>
+        <v>1540.425208226851</v>
       </c>
       <c r="X35" t="n">
-        <v>2169.723949158869</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="Y35" t="n">
-        <v>1779.584617183058</v>
+        <v>1166.959449965771</v>
       </c>
     </row>
     <row r="36">
@@ -6992,34 +6992,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
         <v>713.8062203571349</v>
@@ -7028,13 +7028,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7055,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036444</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036444</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036444</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7122,25 +7122,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>598.8454265624425</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>598.8454265624425</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610022</v>
+        <v>598.8454265624425</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>598.8454265624425</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036444</v>
+        <v>598.8454265624425</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036444</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036444</v>
+        <v>370.8558756644252</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1603.407129497228</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="C38" t="n">
-        <v>1603.407129497228</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D38" t="n">
-        <v>1245.141430890478</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E38" t="n">
-        <v>1245.141430890478</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F38" t="n">
-        <v>834.1555261008705</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>416.1917179990573</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>88.99699803506019</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7204,22 +7204,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V38" t="n">
-        <v>1993.54646147304</v>
+        <v>2096.472718129154</v>
       </c>
       <c r="W38" t="n">
-        <v>1993.54646147304</v>
+        <v>1743.70406285904</v>
       </c>
       <c r="X38" t="n">
-        <v>1993.54646147304</v>
+        <v>1370.23830459796</v>
       </c>
       <c r="Y38" t="n">
-        <v>1603.407129497228</v>
+        <v>1370.23830459796</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7253,16 +7253,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7277,7 +7277,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
         <v>2488.762748073963</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>546.4805193761947</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C40" t="n">
-        <v>377.5443364482878</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D40" t="n">
         <v>348.7460229006679</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1190.010945960184</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C41" t="n">
-        <v>821.0484290197721</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D41" t="n">
-        <v>462.7827304130216</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E41" t="n">
-        <v>462.7827304130216</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F41" t="n">
         <v>53.94298182036445</v>
@@ -7411,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7438,25 +7438,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U41" t="n">
-        <v>2247.308246834948</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V41" t="n">
-        <v>1916.245359491378</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W41" t="n">
-        <v>1563.476704221264</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X41" t="n">
-        <v>1190.010945960184</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y41" t="n">
-        <v>1190.010945960184</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
@@ -7511,28 +7511,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>546.4805193761947</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C43" t="n">
-        <v>377.5443364482878</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D43" t="n">
-        <v>227.4276970359521</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E43" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064344</v>
+        <v>222.942782082032</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064344</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064344</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064344</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064344</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1309.714918859356</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="C44" t="n">
-        <v>1309.714918859356</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="D44" t="n">
-        <v>951.4492202526051</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E44" t="n">
-        <v>951.4492202526051</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F44" t="n">
-        <v>540.4633154629976</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G44" t="n">
-        <v>122.4995073611844</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>122.4995073611844</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>1309.714918859356</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X44" t="n">
-        <v>1309.714918859356</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y44" t="n">
-        <v>1309.714918859356</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="45">
@@ -7733,19 +7733,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>508.6979412980804</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="C46" t="n">
-        <v>508.6979412980804</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="D46" t="n">
-        <v>358.5813018857447</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="E46" t="n">
-        <v>358.5813018857447</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="F46" t="n">
-        <v>211.6913543878343</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="G46" t="n">
-        <v>211.6913543878343</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="H46" t="n">
         <v>53.94298182036445</v>
@@ -7812,46 +7812,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U46" t="n">
-        <v>508.6979412980804</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V46" t="n">
-        <v>508.6979412980804</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W46" t="n">
-        <v>508.6979412980804</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X46" t="n">
-        <v>508.6979412980804</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="Y46" t="n">
-        <v>508.6979412980804</v>
+        <v>211.6471865296039</v>
       </c>
     </row>
   </sheetData>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>136.5653954824675</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>384.6945110063436</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>303.4246101702874</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2788254813442</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P6" t="n">
-        <v>132.4654202195568</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,25 +8531,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114201</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236087</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>392.8337743093849</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>315.0659488154901</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P9" t="n">
-        <v>124.5219861368072</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,13 +9008,13 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9245,7 +9245,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9962,10 +9962,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N27" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451761</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599052</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,7 +10436,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711641</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>435.9238900028821</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>302.3991346476606</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22591,22 +22591,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22640,7 +22640,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,13 +22676,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>121.6254758352848</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,10 +22691,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>108.2910995245858</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22770,7 +22770,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>288.3233546697745</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>162.313313380569</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.2879682170718</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.3235460419765</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.395781178313161</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>148.9413660216818</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>320.9820928610641</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>141.6752062949112</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3356148920818</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.5363898835276</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1328769967189</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9408621947163</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>34.39889902126879</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>95.21021303591469</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,28 +22983,28 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9172826158254</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>115.0560776587299</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.4918077118137</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>151.9681874521645</v>
+        <v>334.968030499315</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>230.483626867069</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.9959047043867</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828962</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703753</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>100.2996914017153</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>171.1123110561969</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839141</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871611</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598916</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>126.4816966381038</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23263,10 +23263,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>189.5896425611785</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>24.10759284657476</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23418,19 +23418,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>78.17079298148559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>13.49974891371818</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
@@ -23463,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23472,7 +23472,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>330.594513458979</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>28.15157632065819</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>120.1198261143227</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23709,7 +23709,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>123.9453835684545</v>
       </c>
     </row>
     <row r="17">
@@ -23734,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>266.3482344430063</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>345.6709743725833</v>
       </c>
     </row>
     <row r="18">
@@ -23895,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23940,7 +23940,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23949,16 +23949,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>38.52630155726084</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>58.3354856046862</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>70.85809818397377</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>281.5952461587929</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24135,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>61.53161905815483</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>16.7557760244263</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>289.2717399824475</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24262,16 +24262,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>108.3949546041248</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>110.3648512204699</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>49.5679241818824</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24445,22 +24445,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>367.4440805382033</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24505,7 +24505,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>266.1734860534716</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>110.5828048172579</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>143.7141211117697</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24657,10 +24657,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>108.2941770979452</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>104.5504879205051</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>122.3964755412622</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24858,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24891,10 +24891,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>96.68503059263384</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>115.1289726160412</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>30.69118209778748</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>130.3794197654774</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>141.3427691173179</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,22 +25156,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>172.8111812107421</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>53.98747366484893</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25320,22 +25320,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,28 +25356,28 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>84.15481688246714</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>117.2278401923125</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>213.2009322020301</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>90.52472273120641</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>120.1051426060687</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25605,7 +25605,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>54.79094525606797</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>2.124694634980813</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>120.1051426060687</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>223.3281785469228</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>209.4252118366048</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>84.06035595944947</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26028,25 +26028,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.04372617964807546</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>69.04514176270726</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>476879.8686487639</v>
+        <v>473796.0964945848</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>492874.1898834558</v>
+        <v>473796.0964945848</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.054682965</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801686.0546829648</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>801686.054682965</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801686.0546829648</v>
+        <v>801686.054682965</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>801686.054682965</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.054682965</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>801686.054682965</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>801686.0546829647</v>
+        <v>801686.054682965</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>801686.0546829648</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>801686.0546829648</v>
+        <v>801686.054682965</v>
       </c>
     </row>
     <row r="16">
@@ -26316,10 +26316,10 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>142222.1657638405</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.1279972481</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26331,13 +26331,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
         <v>245779.7185133938</v>
       </c>
       <c r="J2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="K2" t="n">
         <v>245779.7185133939</v>
@@ -26346,7 +26346,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="M2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.718513394</v>
       </c>
       <c r="N2" t="n">
         <v>245779.7185133939</v>
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>4491.824968753434</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22364.98695753564</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835742</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>913.25580245714</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4727.563118847434</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906351</v>
+        <v>107973.3606740582</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>33649.84678425771</v>
       </c>
       <c r="C4" t="n">
-        <v>33663.59862924285</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="D4" t="n">
-        <v>33719.40849968307</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="E4" t="n">
         <v>35944.74664026682</v>
@@ -26450,7 +26450,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="M4" t="n">
-        <v>35944.74664026681</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="N4" t="n">
         <v>35944.74664026682</v>
@@ -26459,7 +26459,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="P4" t="n">
-        <v>35944.74664026681</v>
+        <v>35944.74664026682</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48577.10433863014</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683336</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26496,10 +26496,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33681.98604797502</v>
+        <v>-22685.77648993863</v>
       </c>
       <c r="C6" t="n">
-        <v>43329.60333142109</v>
+        <v>58083.65504160913</v>
       </c>
       <c r="D6" t="n">
-        <v>29261.28841583884</v>
+        <v>58083.6550416091</v>
       </c>
       <c r="E6" t="n">
-        <v>-253185.3576196758</v>
+        <v>-272849.5216078604</v>
       </c>
       <c r="F6" t="n">
-        <v>154535.0800638984</v>
+        <v>159996.6524351357</v>
       </c>
       <c r="G6" t="n">
-        <v>154535.0800638984</v>
+        <v>159996.6524351357</v>
       </c>
       <c r="H6" t="n">
-        <v>154535.0800638983</v>
+        <v>159996.6524351357</v>
       </c>
       <c r="I6" t="n">
-        <v>154535.0800638983</v>
+        <v>159996.6524351356</v>
       </c>
       <c r="J6" t="n">
-        <v>91475.13746479212</v>
+        <v>96936.70983602945</v>
       </c>
       <c r="K6" t="n">
-        <v>153621.8242614413</v>
+        <v>159996.6524351357</v>
       </c>
       <c r="L6" t="n">
-        <v>149807.5169450509</v>
+        <v>159996.6524351357</v>
       </c>
       <c r="M6" t="n">
-        <v>52100.96237326335</v>
+        <v>52023.2917610776</v>
       </c>
       <c r="N6" t="n">
-        <v>154535.0800638984</v>
+        <v>159996.6524351357</v>
       </c>
       <c r="O6" t="n">
-        <v>154535.0800638984</v>
+        <v>159996.6524351357</v>
       </c>
       <c r="P6" t="n">
-        <v>154535.0800638984</v>
+        <v>159996.6524351357</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26755,7 +26755,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26773,13 +26773,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26792,13 +26792,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26816,13 +26816,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="L4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="M4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="L4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="M4" t="n">
-        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.3395197935473</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.730281530297</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028887</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028886</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028887</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367679</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887802</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381035003</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760445</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324509</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455499</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895175</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019332</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841739</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060786</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544934</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679593</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332537</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318454</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294142</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498144</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104788</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125458</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.67671015524656</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750316</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688227</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430034</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418809</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104034</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523081</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210614</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605604</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.919449770552396</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467892</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00325661075756457</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994849</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259059</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047542</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281358</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166742</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471434</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988743</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815848031</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150904</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.01918103713195</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705232</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473138</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750111</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588708</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815375</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34365,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34392,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>105.9342716247019</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>184.2255055845852</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>221.7606597741147</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>210.5691835920705</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>153.1904304101191</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>92.68955593933616</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>234.0017634719808</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>174.138147103052</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>244.5627323611424</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>71.10423162760989</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>28.57498187926835</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>40.62237561541726</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>45.14597785598184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
-        <v>25.52154136099265</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194293</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150182</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945115</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455866</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.289893789476</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.869644866821</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604673</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>196.5984874863449</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833254</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>76.41420694903819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178757</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082933</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507662</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919058</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025438</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338902</v>
@@ -35904,7 +35904,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35974,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,13 +36609,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36682,13 +36682,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36925,7 +36925,7 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37083,13 +37083,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898695</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37156,19 +37156,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343413</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
         <v>421.5361394435301</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37396,10 +37396,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>515.9012490932188</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,13 +37870,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38101,22 +38101,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
